--- a/AE Sakib/Narail/2021_22/Bridges/Kalishankar Pur Khal Footoverbridge/Girder Reiforcement Calcualtion/Dead_Load_Distribution.xlsx
+++ b/AE Sakib/Narail/2021_22/Bridges/Kalishankar Pur Khal Footoverbridge/Girder Reiforcement Calcualtion/Dead_Load_Distribution.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All\AE Sakib\Narail\2021_22\Bridges\Kalishankar Pur Khal Footoverbridge\Girder Reiforcement Calcualtion\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="member_AB" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="Member_Reactions" sheetId="5" r:id="rId5"/>
     <sheet name="Nodal Reactions" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -95,8 +90,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,13 +143,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -162,14 +154,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -216,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,10 +232,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,7 +266,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -459,14 +441,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -488,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-1.9984014443252822E-15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.998401444325282E-15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -502,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.9968028886505651E-16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.996802888650565E-16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -516,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.7977620220553952E-15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.797762022055395E-15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -530,24 +512,24 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.1958437552457339E-15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.195843755245734E-15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.8000000000000007</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.5939254884360714E-15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.593925488436071E-15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -558,15 +540,15 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.9920072216264089E-15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.992007221626409E-15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.2000000000000011</v>
+        <v>7.200000000000001</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -575,7 +557,7 @@
         <v>1.239008895481675E-14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -589,21 +571,21 @@
         <v>1.478817068800709E-14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.6000000000000014</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.7186252421197421E-14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.718625242119742E-14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -614,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.9584334154387759E-14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.958433415438776E-14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -631,7 +613,7 @@
         <v>2.19824158875781E-14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -645,7 +627,7 @@
         <v>2.438049762076844E-14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -656,10 +638,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.6778579353958781E-14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.677857935395878E-14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -670,10 +652,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.9176661087149121E-14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.917666108714912E-14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -684,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.1574742820339462E-14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.157474282033946E-14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -701,7 +683,7 @@
         <v>3.397282455352979E-14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -712,24 +694,24 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.6370906286720131E-14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.637090628672013E-14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.8768988019910471E-14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.876898801991047E-14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -740,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.1167069753100812E-14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.116706975310081E-14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -754,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.3565151486291153E-14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.356515148629115E-14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -768,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>-3.1103999999999559</v>
+        <v>-3.110399999999956</v>
       </c>
     </row>
   </sheetData>
@@ -777,14 +759,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,7 +777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -803,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.36918947368421062</v>
+        <v>0.3691894736842106</v>
       </c>
       <c r="D2">
-        <v>-3.1104000000000012</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-3.110400000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -817,27 +799,27 @@
         <v>3.8</v>
       </c>
       <c r="C3">
-        <v>0.36918947368421062</v>
+        <v>0.3691894736842106</v>
       </c>
       <c r="D3">
         <v>8.709120000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.6000000000000014</v>
+        <v>7.600000000000001</v>
       </c>
       <c r="C4">
-        <v>0.36918947368421062</v>
+        <v>0.3691894736842106</v>
       </c>
       <c r="D4">
         <v>20.52864000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -845,13 +827,13 @@
         <v>11.4</v>
       </c>
       <c r="C5">
-        <v>0.36918947368421062</v>
+        <v>0.3691894736842106</v>
       </c>
       <c r="D5">
-        <v>32.348160000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32.34816000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -859,13 +841,13 @@
         <v>15.2</v>
       </c>
       <c r="C6">
-        <v>0.36918947368421062</v>
+        <v>0.3691894736842106</v>
       </c>
       <c r="D6">
-        <v>44.167680000000018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44.16768000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -873,13 +855,13 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>0.36918947368421062</v>
+        <v>0.3691894736842106</v>
       </c>
       <c r="D7">
-        <v>55.987200000000023</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55.98720000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -887,13 +869,13 @@
         <v>22.8</v>
       </c>
       <c r="C8">
-        <v>0.36918947368421062</v>
+        <v>0.3691894736842106</v>
       </c>
       <c r="D8">
-        <v>67.806720000000027</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>67.80672000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -901,13 +883,13 @@
         <v>26.6</v>
       </c>
       <c r="C9">
-        <v>0.36918947368421062</v>
+        <v>0.3691894736842106</v>
       </c>
       <c r="D9">
-        <v>79.626240000000024</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>79.62624000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -915,27 +897,27 @@
         <v>30.4</v>
       </c>
       <c r="C10">
-        <v>0.36918947368421062</v>
+        <v>0.3691894736842106</v>
       </c>
       <c r="D10">
-        <v>91.445760000000035</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>91.44576000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.200000000000003</v>
+        <v>34.2</v>
       </c>
       <c r="C11">
-        <v>0.36918947368421062</v>
+        <v>0.3691894736842106</v>
       </c>
       <c r="D11">
         <v>103.26528</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -943,13 +925,13 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>0.36918947368421062</v>
+        <v>0.3691894736842106</v>
       </c>
       <c r="D12">
         <v>115.0848</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -957,27 +939,27 @@
         <v>41.8</v>
       </c>
       <c r="C13">
-        <v>0.36918947368421062</v>
+        <v>0.3691894736842106</v>
       </c>
       <c r="D13">
         <v>126.90432</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>45.600000000000009</v>
+        <v>45.60000000000001</v>
       </c>
       <c r="C14">
-        <v>0.36918947368421062</v>
+        <v>0.3691894736842106</v>
       </c>
       <c r="D14">
-        <v>138.72384000000011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>138.7238400000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -985,13 +967,13 @@
         <v>49.4</v>
       </c>
       <c r="C15">
-        <v>0.36918947368421062</v>
+        <v>0.3691894736842106</v>
       </c>
       <c r="D15">
-        <v>150.54336000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>150.54336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -999,13 +981,13 @@
         <v>53.2</v>
       </c>
       <c r="C16">
-        <v>0.36918947368421062</v>
+        <v>0.3691894736842106</v>
       </c>
       <c r="D16">
-        <v>162.36287999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>162.36288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1013,13 +995,13 @@
         <v>57</v>
       </c>
       <c r="C17">
-        <v>0.36918947368421062</v>
+        <v>0.3691894736842106</v>
       </c>
       <c r="D17">
         <v>174.1824</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1027,41 +1009,41 @@
         <v>60.8</v>
       </c>
       <c r="C18">
-        <v>0.36918947368421062</v>
+        <v>0.3691894736842106</v>
       </c>
       <c r="D18">
         <v>186.0019200000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>64.600000000000009</v>
+        <v>64.60000000000001</v>
       </c>
       <c r="C19">
-        <v>0.36918947368421062</v>
+        <v>0.3691894736842106</v>
       </c>
       <c r="D19">
-        <v>197.82144000000011</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>197.8214400000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>68.400000000000006</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C20">
-        <v>0.36918947368421062</v>
+        <v>0.3691894736842106</v>
       </c>
       <c r="D20">
-        <v>209.64096000000009</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>209.6409600000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1069,13 +1051,13 @@
         <v>72.2</v>
       </c>
       <c r="C21">
-        <v>0.36918947368421062</v>
+        <v>0.3691894736842106</v>
       </c>
       <c r="D21">
         <v>221.4604800000001</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1086,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>227.03760000000011</v>
+        <v>227.0376000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1095,14 +1077,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1113,7 +1095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1121,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.45161052631578952</v>
+        <v>0.4516105263157895</v>
       </c>
       <c r="D2">
-        <v>-6.2423999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-6.2424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1135,27 +1117,27 @@
         <v>3.8</v>
       </c>
       <c r="C3">
-        <v>0.45161052631578952</v>
+        <v>0.4516105263157895</v>
       </c>
       <c r="D3">
-        <v>17.478719999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.47872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.6000000000000014</v>
+        <v>7.600000000000001</v>
       </c>
       <c r="C4">
-        <v>0.45161052631578952</v>
+        <v>0.4516105263157895</v>
       </c>
       <c r="D4">
-        <v>41.199840000000009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41.19984000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1163,13 +1145,13 @@
         <v>11.4</v>
       </c>
       <c r="C5">
-        <v>0.45161052631578952</v>
+        <v>0.4516105263157895</v>
       </c>
       <c r="D5">
-        <v>64.920960000000008</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64.92096000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1177,13 +1159,13 @@
         <v>15.2</v>
       </c>
       <c r="C6">
-        <v>0.45161052631578952</v>
+        <v>0.4516105263157895</v>
       </c>
       <c r="D6">
-        <v>88.642080000000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>88.64208000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1191,13 +1173,13 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>0.45161052631578952</v>
+        <v>0.4516105263157895</v>
       </c>
       <c r="D7">
-        <v>112.36320000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112.3632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1205,13 +1187,13 @@
         <v>22.8</v>
       </c>
       <c r="C8">
-        <v>0.45161052631578952</v>
+        <v>0.4516105263157895</v>
       </c>
       <c r="D8">
-        <v>136.08431999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>136.08432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1219,13 +1201,13 @@
         <v>26.6</v>
       </c>
       <c r="C9">
-        <v>0.45161052631578952</v>
+        <v>0.4516105263157895</v>
       </c>
       <c r="D9">
         <v>159.80544</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1233,27 +1215,27 @@
         <v>30.4</v>
       </c>
       <c r="C10">
-        <v>0.45161052631578952</v>
+        <v>0.4516105263157895</v>
       </c>
       <c r="D10">
-        <v>183.52655999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>183.52656</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.200000000000003</v>
+        <v>34.2</v>
       </c>
       <c r="C11">
-        <v>0.45161052631578952</v>
+        <v>0.4516105263157895</v>
       </c>
       <c r="D11">
         <v>207.24768</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1261,13 +1243,13 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>0.45161052631578952</v>
+        <v>0.4516105263157895</v>
       </c>
       <c r="D12">
-        <v>230.96879999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>230.9688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1275,27 +1257,27 @@
         <v>41.8</v>
       </c>
       <c r="C13">
-        <v>0.45161052631578952</v>
+        <v>0.4516105263157895</v>
       </c>
       <c r="D13">
         <v>254.68992</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>45.600000000000009</v>
+        <v>45.60000000000001</v>
       </c>
       <c r="C14">
-        <v>0.45161052631578952</v>
+        <v>0.4516105263157895</v>
       </c>
       <c r="D14">
-        <v>278.41104000000013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>278.4110400000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1303,13 +1285,13 @@
         <v>49.4</v>
       </c>
       <c r="C15">
-        <v>0.45161052631578952</v>
+        <v>0.4516105263157895</v>
       </c>
       <c r="D15">
         <v>302.13216</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1317,13 +1299,13 @@
         <v>53.2</v>
       </c>
       <c r="C16">
-        <v>0.45161052631578952</v>
+        <v>0.4516105263157895</v>
       </c>
       <c r="D16">
-        <v>325.85327999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>325.85328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1331,13 +1313,13 @@
         <v>57</v>
       </c>
       <c r="C17">
-        <v>0.45161052631578952</v>
+        <v>0.4516105263157895</v>
       </c>
       <c r="D17">
-        <v>349.57440000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>349.5744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1345,41 +1327,41 @@
         <v>60.8</v>
       </c>
       <c r="C18">
-        <v>0.45161052631578952</v>
+        <v>0.4516105263157895</v>
       </c>
       <c r="D18">
-        <v>373.29552000000012</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>373.2955200000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>64.600000000000009</v>
+        <v>64.60000000000001</v>
       </c>
       <c r="C19">
-        <v>0.45161052631578952</v>
+        <v>0.4516105263157895</v>
       </c>
       <c r="D19">
-        <v>397.01664000000011</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>397.0166400000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>68.400000000000006</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C20">
-        <v>0.45161052631578952</v>
+        <v>0.4516105263157895</v>
       </c>
       <c r="D20">
-        <v>420.73775999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>420.73776</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1387,13 +1369,13 @@
         <v>72.2</v>
       </c>
       <c r="C21">
-        <v>0.45161052631578952</v>
+        <v>0.4516105263157895</v>
       </c>
       <c r="D21">
-        <v>444.45888000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>444.45888</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1404,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>465.06959999999998</v>
+        <v>465.0696</v>
       </c>
     </row>
   </sheetData>
@@ -1413,14 +1395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1431,7 +1413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1439,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.25919999999999987</v>
+        <v>0.2591999999999999</v>
       </c>
       <c r="D2">
-        <v>-3.1103999999999989</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-3.110399999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1453,13 +1435,13 @@
         <v>1.2</v>
       </c>
       <c r="C3">
-        <v>0.25919999999999987</v>
+        <v>0.2591999999999999</v>
       </c>
       <c r="D3">
-        <v>0.62208000000000041</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.6220800000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1467,13 +1449,13 @@
         <v>2.4</v>
       </c>
       <c r="C4">
-        <v>0.25919999999999987</v>
+        <v>0.2591999999999999</v>
       </c>
       <c r="D4">
-        <v>4.3545600000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.35456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1481,27 +1463,27 @@
         <v>3.600000000000001</v>
       </c>
       <c r="C5">
-        <v>0.25919999999999987</v>
+        <v>0.2591999999999999</v>
       </c>
       <c r="D5">
-        <v>8.0870400000000018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.087040000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.8000000000000007</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="C6">
-        <v>0.25919999999999987</v>
+        <v>0.2591999999999999</v>
       </c>
       <c r="D6">
-        <v>11.819520000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11.81952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1509,27 +1491,27 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.25919999999999987</v>
+        <v>0.2591999999999999</v>
       </c>
       <c r="D7">
         <v>15.552</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.2000000000000011</v>
+        <v>7.200000000000001</v>
       </c>
       <c r="C8">
-        <v>0.25919999999999987</v>
+        <v>0.2591999999999999</v>
       </c>
       <c r="D8">
-        <v>19.284479999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.28448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1537,27 +1519,27 @@
         <v>8.4</v>
       </c>
       <c r="C9">
-        <v>0.25919999999999987</v>
+        <v>0.2591999999999999</v>
       </c>
       <c r="D9">
-        <v>23.016960000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23.01696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.6000000000000014</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="C10">
-        <v>0.25919999999999987</v>
+        <v>0.2591999999999999</v>
       </c>
       <c r="D10">
         <v>26.74944</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1565,13 +1547,13 @@
         <v>10.8</v>
       </c>
       <c r="C11">
-        <v>0.25919999999999987</v>
+        <v>0.2591999999999999</v>
       </c>
       <c r="D11">
-        <v>30.481919999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30.48192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1579,13 +1561,13 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.25919999999999987</v>
+        <v>0.2591999999999999</v>
       </c>
       <c r="D12">
-        <v>34.214399999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34.2144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1593,13 +1575,13 @@
         <v>13.2</v>
       </c>
       <c r="C13">
-        <v>0.25919999999999987</v>
+        <v>0.2591999999999999</v>
       </c>
       <c r="D13">
         <v>37.94688</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1607,13 +1589,13 @@
         <v>14.4</v>
       </c>
       <c r="C14">
-        <v>0.25919999999999987</v>
+        <v>0.2591999999999999</v>
       </c>
       <c r="D14">
-        <v>41.679360000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41.67936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1621,13 +1603,13 @@
         <v>15.6</v>
       </c>
       <c r="C15">
-        <v>0.25919999999999987</v>
+        <v>0.2591999999999999</v>
       </c>
       <c r="D15">
-        <v>45.411839999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45.41184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1635,13 +1617,13 @@
         <v>16.8</v>
       </c>
       <c r="C16">
-        <v>0.25919999999999987</v>
+        <v>0.2591999999999999</v>
       </c>
       <c r="D16">
-        <v>49.144319999999993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>49.14431999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1649,13 +1631,13 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>0.25919999999999987</v>
+        <v>0.2591999999999999</v>
       </c>
       <c r="D17">
-        <v>52.876799999999989</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52.87679999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1663,27 +1645,27 @@
         <v>19.2</v>
       </c>
       <c r="C18">
-        <v>0.25919999999999987</v>
+        <v>0.2591999999999999</v>
       </c>
       <c r="D18">
-        <v>56.609279999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>56.60928</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="C19">
-        <v>0.25919999999999987</v>
+        <v>0.2591999999999999</v>
       </c>
       <c r="D19">
-        <v>60.341759999999987</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60.34175999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1691,13 +1673,13 @@
         <v>21.6</v>
       </c>
       <c r="C20">
-        <v>0.25919999999999987</v>
+        <v>0.2591999999999999</v>
       </c>
       <c r="D20">
-        <v>64.074239999999989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64.07423999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1705,13 +1687,13 @@
         <v>22.8</v>
       </c>
       <c r="C21">
-        <v>0.25919999999999987</v>
+        <v>0.2591999999999999</v>
       </c>
       <c r="D21">
-        <v>67.806719999999984</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>67.80671999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1722,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>71.539199999999994</v>
+        <v>71.53919999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1731,14 +1713,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1758,7 +1740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1772,16 +1754,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.9984014443252822E-15</v>
+        <v>1.998401444325282E-15</v>
       </c>
       <c r="F2">
-        <v>0.25919999999999999</v>
+        <v>0.2592</v>
       </c>
       <c r="G2">
-        <v>-3.1104000000000021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-3.110400000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1792,19 +1774,19 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>0.36918947368421062</v>
+        <v>0.3691894736842106</v>
       </c>
       <c r="E3">
-        <v>3.1104000000000012</v>
+        <v>3.110400000000001</v>
       </c>
       <c r="F3">
-        <v>0.45161052631578952</v>
+        <v>0.4516105263157895</v>
       </c>
       <c r="G3">
-        <v>-6.2423999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-6.2424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1815,19 +1797,19 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>0.45161052631578952</v>
+        <v>0.4516105263157895</v>
       </c>
       <c r="E4">
-        <v>6.2423999999999999</v>
+        <v>6.2424</v>
       </c>
       <c r="F4">
-        <v>0.36918947368421062</v>
+        <v>0.3691894736842106</v>
       </c>
       <c r="G4">
-        <v>-3.1103999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>-3.1104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1838,16 +1820,16 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>0.25919999999999987</v>
+        <v>0.2591999999999999</v>
       </c>
       <c r="E5">
-        <v>3.1103999999999989</v>
+        <v>3.110399999999999</v>
       </c>
       <c r="F5">
         <v>1.110223024625157E-16</v>
       </c>
       <c r="G5">
-        <v>-2.2204460492503131E-16</v>
+        <v>-2.220446049250313E-16</v>
       </c>
     </row>
   </sheetData>
@@ -1856,19 +1838,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1882,88 +1859,88 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>0.6283894736842105</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2">
-        <v>0.90322105263157904</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>0.903221052631579</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>0.6283894736842105</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
     </row>
